--- a/src/test/resources/workbook/有效性测试.xlsx
+++ b/src/test/resources/workbook/有效性测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,15 +1183,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="10.375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,6 +1203,9 @@
       </c>
       <c r="D1" t="s">
         <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45372</v>
       </c>
     </row>
     <row r="2" spans="4:4">

--- a/src/test/resources/workbook/有效性测试.xlsx
+++ b/src/test/resources/workbook/有效性测试.xlsx
@@ -1186,12 +1186,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="10.375"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>45372</v>
+        <v>45566.917025463</v>
       </c>
     </row>
     <row r="2" spans="4:4">
